--- a/new_version/Cliboardfinal.xlsx
+++ b/new_version/Cliboardfinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/AppsMine/PythonTest Music/new_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2C74D4-0064-3D49-BC6E-2242E36897F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED66F33-B3D5-2544-830A-CF69D8DF1747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{B840ACBE-8D20-6E46-8F84-8F43DF1DC008}"/>
   </bookViews>
@@ -16,18 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="LR" sheetId="2" r:id="rId2"/>
     <sheet name="IN" sheetId="4" r:id="rId3"/>
-    <sheet name="CN" sheetId="9" r:id="rId4"/>
-    <sheet name="BD" sheetId="10" r:id="rId5"/>
-    <sheet name="AH" sheetId="11" r:id="rId6"/>
-    <sheet name="DK" sheetId="8" r:id="rId7"/>
-    <sheet name="ER" sheetId="6" r:id="rId8"/>
-    <sheet name="EK" sheetId="15" r:id="rId9"/>
-    <sheet name="D" sheetId="13" r:id="rId10"/>
-    <sheet name="AR" sheetId="14" r:id="rId11"/>
-    <sheet name="IO" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId13"/>
-    <sheet name="HZ" sheetId="5" r:id="rId14"/>
-    <sheet name="KV" sheetId="3" r:id="rId15"/>
+    <sheet name="AV" sheetId="16" r:id="rId4"/>
+    <sheet name="CN" sheetId="9" r:id="rId5"/>
+    <sheet name="BD" sheetId="10" r:id="rId6"/>
+    <sheet name="AH" sheetId="11" r:id="rId7"/>
+    <sheet name="DK" sheetId="8" r:id="rId8"/>
+    <sheet name="ER" sheetId="6" r:id="rId9"/>
+    <sheet name="EK" sheetId="15" r:id="rId10"/>
+    <sheet name="D" sheetId="13" r:id="rId11"/>
+    <sheet name="AR" sheetId="14" r:id="rId12"/>
+    <sheet name="IO" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId14"/>
+    <sheet name="HZ" sheetId="5" r:id="rId15"/>
+    <sheet name="KV" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -811,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89F84B4-718B-054F-9FBF-CCB2A0505034}">
   <dimension ref="A2:HU139"/>
   <sheetViews>
-    <sheetView topLeftCell="FV1" workbookViewId="0">
-      <selection activeCell="DY15" sqref="A15:DY15"/>
+    <sheetView topLeftCell="HB1" workbookViewId="0">
+      <selection activeCell="HU1" sqref="HU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30975,6 +30976,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617C5839-7B5F-3D4A-ABC2-A19A6CAC3B4A}">
+  <dimension ref="A2:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="28">
+        <v>7</v>
+      </c>
+      <c r="B2" s="28">
+        <v>7</v>
+      </c>
+      <c r="C2" s="28">
+        <v>7</v>
+      </c>
+      <c r="D2" s="30">
+        <v>8</v>
+      </c>
+      <c r="E2" s="30">
+        <v>8</v>
+      </c>
+      <c r="F2" s="30">
+        <v>8</v>
+      </c>
+      <c r="G2" s="57">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D37115-F7C3-AA45-BB20-CDBA0144C9B2}">
   <dimension ref="B2:NJ6"/>
   <sheetViews>
@@ -33035,7 +33074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BC75C2-1619-A649-9F09-88CC1D40029B}">
   <dimension ref="A2:GV2"/>
   <sheetViews>
@@ -33664,7 +33703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9C8F1E-3D36-1043-BF84-5ED8B71E0A6E}">
   <dimension ref="A2:BG2"/>
   <sheetViews>
@@ -33894,7 +33933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA2B94D-D423-824B-9ABE-6574E758C6DC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -33909,7 +33948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D093A05B-64DC-484A-95DF-11A064A7F813}">
   <dimension ref="A2:CR2"/>
   <sheetViews>
@@ -34215,7 +34254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2F6CB9-9540-2349-BDF4-F6A16D85AE0F}">
   <dimension ref="A1:BQ7"/>
   <sheetViews>
@@ -34696,7 +34735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8D7768-DE47-384C-9F81-0DD8571EE464}">
   <dimension ref="A2:AU100"/>
   <sheetViews>
-    <sheetView topLeftCell="AE30" workbookViewId="0">
+    <sheetView topLeftCell="AE1" workbookViewId="0">
       <selection activeCell="AU20" sqref="AU20"/>
     </sheetView>
   </sheetViews>
@@ -44236,8 +44275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44525FF6-80B3-B747-9919-32AA39A449CF}">
   <dimension ref="A1:DY58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:DX59"/>
+    <sheetView topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="CD1" sqref="CD1:CD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53241,11 +53280,676 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4E5D1F-D207-6243-8367-1FAA7E80A844}">
+  <dimension ref="A1:GR1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:GR1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:200" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>59</v>
+      </c>
+      <c r="B1">
+        <v>60</v>
+      </c>
+      <c r="C1">
+        <v>60</v>
+      </c>
+      <c r="D1">
+        <v>60</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>60</v>
+      </c>
+      <c r="H1">
+        <v>60</v>
+      </c>
+      <c r="I1">
+        <v>60</v>
+      </c>
+      <c r="J1">
+        <v>60</v>
+      </c>
+      <c r="K1">
+        <v>60</v>
+      </c>
+      <c r="L1">
+        <v>60</v>
+      </c>
+      <c r="M1">
+        <v>60</v>
+      </c>
+      <c r="N1">
+        <v>60</v>
+      </c>
+      <c r="O1">
+        <v>60</v>
+      </c>
+      <c r="P1">
+        <v>60</v>
+      </c>
+      <c r="Q1">
+        <v>60</v>
+      </c>
+      <c r="R1">
+        <v>60</v>
+      </c>
+      <c r="S1">
+        <v>60</v>
+      </c>
+      <c r="T1">
+        <v>60</v>
+      </c>
+      <c r="U1">
+        <v>60</v>
+      </c>
+      <c r="V1">
+        <v>60</v>
+      </c>
+      <c r="W1">
+        <v>60</v>
+      </c>
+      <c r="X1">
+        <v>60</v>
+      </c>
+      <c r="Y1">
+        <v>60</v>
+      </c>
+      <c r="Z1">
+        <v>60</v>
+      </c>
+      <c r="AA1">
+        <v>60</v>
+      </c>
+      <c r="AB1">
+        <v>60</v>
+      </c>
+      <c r="AC1">
+        <v>60</v>
+      </c>
+      <c r="AD1">
+        <v>60</v>
+      </c>
+      <c r="AE1">
+        <v>60</v>
+      </c>
+      <c r="AF1">
+        <v>60</v>
+      </c>
+      <c r="AG1">
+        <v>60</v>
+      </c>
+      <c r="AH1">
+        <v>60</v>
+      </c>
+      <c r="AI1">
+        <v>60</v>
+      </c>
+      <c r="AJ1">
+        <v>60</v>
+      </c>
+      <c r="AK1">
+        <v>60</v>
+      </c>
+      <c r="AL1">
+        <v>60</v>
+      </c>
+      <c r="AM1">
+        <v>60</v>
+      </c>
+      <c r="AN1">
+        <v>60</v>
+      </c>
+      <c r="AO1">
+        <v>61</v>
+      </c>
+      <c r="AP1">
+        <v>62</v>
+      </c>
+      <c r="AQ1">
+        <v>62</v>
+      </c>
+      <c r="AR1">
+        <v>62</v>
+      </c>
+      <c r="AS1">
+        <v>62</v>
+      </c>
+      <c r="AT1">
+        <v>62</v>
+      </c>
+      <c r="AU1">
+        <v>62</v>
+      </c>
+      <c r="AV1">
+        <v>62</v>
+      </c>
+      <c r="AW1">
+        <v>62</v>
+      </c>
+      <c r="AX1">
+        <v>62</v>
+      </c>
+      <c r="AY1">
+        <v>62</v>
+      </c>
+      <c r="AZ1">
+        <v>62</v>
+      </c>
+      <c r="BA1">
+        <v>62</v>
+      </c>
+      <c r="BB1">
+        <v>62</v>
+      </c>
+      <c r="BC1">
+        <v>62</v>
+      </c>
+      <c r="BD1">
+        <v>62</v>
+      </c>
+      <c r="BE1">
+        <v>62</v>
+      </c>
+      <c r="BF1">
+        <v>62</v>
+      </c>
+      <c r="BG1">
+        <v>62</v>
+      </c>
+      <c r="BH1">
+        <v>62</v>
+      </c>
+      <c r="BI1">
+        <v>62</v>
+      </c>
+      <c r="BJ1">
+        <v>62</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>62</v>
+      </c>
+      <c r="BM1">
+        <v>62</v>
+      </c>
+      <c r="BN1">
+        <v>62</v>
+      </c>
+      <c r="BO1">
+        <v>62</v>
+      </c>
+      <c r="BP1">
+        <v>62</v>
+      </c>
+      <c r="BQ1">
+        <v>62</v>
+      </c>
+      <c r="BR1">
+        <v>62</v>
+      </c>
+      <c r="BS1">
+        <v>62</v>
+      </c>
+      <c r="BT1">
+        <v>62</v>
+      </c>
+      <c r="BU1">
+        <v>62</v>
+      </c>
+      <c r="BV1">
+        <v>62</v>
+      </c>
+      <c r="BW1">
+        <v>62</v>
+      </c>
+      <c r="BX1">
+        <v>62</v>
+      </c>
+      <c r="BY1">
+        <v>62</v>
+      </c>
+      <c r="BZ1">
+        <v>62</v>
+      </c>
+      <c r="CA1">
+        <v>62</v>
+      </c>
+      <c r="CB1">
+        <v>62</v>
+      </c>
+      <c r="CC1">
+        <v>62</v>
+      </c>
+      <c r="CD1">
+        <v>62</v>
+      </c>
+      <c r="CE1">
+        <v>62</v>
+      </c>
+      <c r="CF1">
+        <v>62</v>
+      </c>
+      <c r="CG1">
+        <v>62</v>
+      </c>
+      <c r="CH1">
+        <v>62</v>
+      </c>
+      <c r="CI1">
+        <v>62</v>
+      </c>
+      <c r="CJ1">
+        <v>62</v>
+      </c>
+      <c r="CK1">
+        <v>62</v>
+      </c>
+      <c r="CL1">
+        <v>62</v>
+      </c>
+      <c r="CM1">
+        <v>62</v>
+      </c>
+      <c r="CN1">
+        <v>62</v>
+      </c>
+      <c r="CO1">
+        <v>62</v>
+      </c>
+      <c r="CP1">
+        <v>62</v>
+      </c>
+      <c r="CQ1">
+        <v>62</v>
+      </c>
+      <c r="CR1">
+        <v>62</v>
+      </c>
+      <c r="CS1">
+        <v>62</v>
+      </c>
+      <c r="CT1">
+        <v>62</v>
+      </c>
+      <c r="CU1">
+        <v>62</v>
+      </c>
+      <c r="CV1">
+        <v>62</v>
+      </c>
+      <c r="CW1">
+        <v>62</v>
+      </c>
+      <c r="CX1">
+        <v>62</v>
+      </c>
+      <c r="CY1">
+        <v>62</v>
+      </c>
+      <c r="CZ1">
+        <v>62</v>
+      </c>
+      <c r="DA1">
+        <v>62</v>
+      </c>
+      <c r="DB1">
+        <v>62</v>
+      </c>
+      <c r="DC1">
+        <v>62</v>
+      </c>
+      <c r="DD1">
+        <v>62</v>
+      </c>
+      <c r="DE1">
+        <v>62</v>
+      </c>
+      <c r="DF1">
+        <v>62</v>
+      </c>
+      <c r="DG1">
+        <v>62</v>
+      </c>
+      <c r="DH1">
+        <v>62</v>
+      </c>
+      <c r="DI1">
+        <v>62</v>
+      </c>
+      <c r="DJ1">
+        <v>62</v>
+      </c>
+      <c r="DK1">
+        <v>62</v>
+      </c>
+      <c r="DL1">
+        <v>62</v>
+      </c>
+      <c r="DM1">
+        <v>62</v>
+      </c>
+      <c r="DN1">
+        <v>62</v>
+      </c>
+      <c r="DO1">
+        <v>62</v>
+      </c>
+      <c r="DP1">
+        <v>62</v>
+      </c>
+      <c r="DQ1">
+        <v>62</v>
+      </c>
+      <c r="DR1">
+        <v>62</v>
+      </c>
+      <c r="DS1">
+        <v>62</v>
+      </c>
+      <c r="DT1">
+        <v>62</v>
+      </c>
+      <c r="DU1">
+        <v>62</v>
+      </c>
+      <c r="DV1">
+        <v>62</v>
+      </c>
+      <c r="DW1">
+        <v>62</v>
+      </c>
+      <c r="DX1">
+        <v>62</v>
+      </c>
+      <c r="DY1">
+        <v>62</v>
+      </c>
+      <c r="DZ1">
+        <v>62</v>
+      </c>
+      <c r="EA1">
+        <v>62</v>
+      </c>
+      <c r="EB1">
+        <v>62</v>
+      </c>
+      <c r="EC1">
+        <v>62</v>
+      </c>
+      <c r="ED1">
+        <v>62</v>
+      </c>
+      <c r="EE1">
+        <v>62</v>
+      </c>
+      <c r="EF1">
+        <v>62</v>
+      </c>
+      <c r="EG1">
+        <v>62</v>
+      </c>
+      <c r="EH1">
+        <v>62</v>
+      </c>
+      <c r="EI1">
+        <v>62</v>
+      </c>
+      <c r="EJ1">
+        <v>62</v>
+      </c>
+      <c r="EK1">
+        <v>62</v>
+      </c>
+      <c r="EL1">
+        <v>62</v>
+      </c>
+      <c r="EM1">
+        <v>62</v>
+      </c>
+      <c r="EN1">
+        <v>62</v>
+      </c>
+      <c r="EO1">
+        <v>62</v>
+      </c>
+      <c r="EP1">
+        <v>62</v>
+      </c>
+      <c r="EQ1">
+        <v>62</v>
+      </c>
+      <c r="ER1">
+        <v>62</v>
+      </c>
+      <c r="ES1">
+        <v>62</v>
+      </c>
+      <c r="ET1">
+        <v>63</v>
+      </c>
+      <c r="EU1">
+        <v>63</v>
+      </c>
+      <c r="EV1">
+        <v>63</v>
+      </c>
+      <c r="EW1">
+        <v>63</v>
+      </c>
+      <c r="EX1">
+        <v>63</v>
+      </c>
+      <c r="EY1">
+        <v>63</v>
+      </c>
+      <c r="EZ1">
+        <v>63</v>
+      </c>
+      <c r="FA1">
+        <v>63</v>
+      </c>
+      <c r="FB1">
+        <v>63</v>
+      </c>
+      <c r="FC1">
+        <v>63</v>
+      </c>
+      <c r="FD1">
+        <v>63</v>
+      </c>
+      <c r="FE1">
+        <v>63</v>
+      </c>
+      <c r="FF1">
+        <v>63</v>
+      </c>
+      <c r="FG1">
+        <v>63</v>
+      </c>
+      <c r="FH1">
+        <v>63</v>
+      </c>
+      <c r="FI1">
+        <v>63</v>
+      </c>
+      <c r="FJ1">
+        <v>63</v>
+      </c>
+      <c r="FK1">
+        <v>63</v>
+      </c>
+      <c r="FL1">
+        <v>63</v>
+      </c>
+      <c r="FM1">
+        <v>63</v>
+      </c>
+      <c r="FN1">
+        <v>63</v>
+      </c>
+      <c r="FO1">
+        <v>63</v>
+      </c>
+      <c r="FP1">
+        <v>63</v>
+      </c>
+      <c r="FQ1">
+        <v>63</v>
+      </c>
+      <c r="FR1">
+        <v>63</v>
+      </c>
+      <c r="FS1">
+        <v>63</v>
+      </c>
+      <c r="FT1">
+        <v>63</v>
+      </c>
+      <c r="FU1">
+        <v>63</v>
+      </c>
+      <c r="FV1">
+        <v>63</v>
+      </c>
+      <c r="FW1">
+        <v>63</v>
+      </c>
+      <c r="FX1">
+        <v>63</v>
+      </c>
+      <c r="FY1">
+        <v>63</v>
+      </c>
+      <c r="FZ1">
+        <v>63</v>
+      </c>
+      <c r="GA1">
+        <v>63</v>
+      </c>
+      <c r="GB1">
+        <v>63</v>
+      </c>
+      <c r="GC1">
+        <v>63</v>
+      </c>
+      <c r="GD1">
+        <v>63</v>
+      </c>
+      <c r="GE1">
+        <v>63</v>
+      </c>
+      <c r="GF1">
+        <v>63</v>
+      </c>
+      <c r="GG1">
+        <v>63</v>
+      </c>
+      <c r="GH1">
+        <v>63</v>
+      </c>
+      <c r="GI1">
+        <v>63</v>
+      </c>
+      <c r="GJ1">
+        <v>63</v>
+      </c>
+      <c r="GK1">
+        <v>63</v>
+      </c>
+      <c r="GL1">
+        <v>63</v>
+      </c>
+      <c r="GM1">
+        <v>63</v>
+      </c>
+      <c r="GN1">
+        <v>63</v>
+      </c>
+      <c r="GO1">
+        <v>63</v>
+      </c>
+      <c r="GP1">
+        <v>63</v>
+      </c>
+      <c r="GQ1">
+        <v>63</v>
+      </c>
+      <c r="GR1">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:GR1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="GR1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV1:CW1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:GR1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E22493-E373-9F4F-8D26-3839B0DFB44E}">
   <dimension ref="A2:EN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:EN2"/>
+    <sheetView topLeftCell="DU1" workbookViewId="0">
+      <selection activeCell="EN2" sqref="EN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53726,12 +54430,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE824707-FC51-9645-84A0-672A565E39BD}">
   <dimension ref="A1:GV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:GV7"/>
+    <sheetView topLeftCell="GC1" workbookViewId="0">
+      <selection activeCell="GV4" sqref="GV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57365,17 +58069,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADE35FC-DE61-BF48-BBED-48F82E047F59}">
-  <dimension ref="A1:HF4"/>
+  <dimension ref="A1:IJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:HF4"/>
+    <sheetView topLeftCell="HQ1" workbookViewId="0">
+      <selection activeCell="IJ6" sqref="IJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:214" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A1" s="43">
         <v>0</v>
       </c>
@@ -58019,7 +58723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:214" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -58663,653 +59367,791 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:214" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>35</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4">
-        <v>35</v>
-      </c>
-      <c r="J4">
-        <v>35</v>
-      </c>
-      <c r="K4">
-        <v>38</v>
-      </c>
-      <c r="L4">
-        <v>39</v>
-      </c>
-      <c r="M4">
-        <v>42</v>
-      </c>
-      <c r="N4">
-        <v>42</v>
-      </c>
-      <c r="O4">
-        <v>44</v>
-      </c>
-      <c r="P4">
-        <v>44</v>
-      </c>
-      <c r="Q4">
-        <v>44</v>
-      </c>
-      <c r="R4">
-        <v>44</v>
-      </c>
-      <c r="S4">
-        <v>44</v>
-      </c>
-      <c r="T4">
-        <v>45</v>
-      </c>
-      <c r="U4">
-        <v>46</v>
-      </c>
-      <c r="V4">
-        <v>46</v>
-      </c>
-      <c r="W4">
-        <v>47</v>
-      </c>
-      <c r="X4">
-        <v>48</v>
-      </c>
-      <c r="Y4">
-        <v>48</v>
-      </c>
-      <c r="Z4">
-        <v>50</v>
-      </c>
-      <c r="AA4">
-        <v>50</v>
-      </c>
-      <c r="AB4">
-        <v>50</v>
-      </c>
-      <c r="AC4">
-        <v>51</v>
-      </c>
-      <c r="AD4">
-        <v>51</v>
-      </c>
-      <c r="AE4">
-        <v>51</v>
-      </c>
-      <c r="AF4">
-        <v>51</v>
-      </c>
-      <c r="AG4">
-        <v>51</v>
-      </c>
-      <c r="AH4">
-        <v>51</v>
-      </c>
-      <c r="AI4">
-        <v>51</v>
-      </c>
-      <c r="AJ4">
-        <v>51</v>
-      </c>
-      <c r="AK4">
-        <v>51</v>
-      </c>
-      <c r="AL4">
-        <v>51</v>
-      </c>
-      <c r="AM4">
-        <v>52</v>
-      </c>
-      <c r="AN4">
-        <v>52</v>
-      </c>
-      <c r="AO4">
-        <v>52</v>
-      </c>
-      <c r="AP4">
-        <v>52</v>
-      </c>
-      <c r="AQ4">
-        <v>52</v>
-      </c>
-      <c r="AR4">
-        <v>53</v>
-      </c>
-      <c r="AS4">
-        <v>53</v>
-      </c>
-      <c r="AT4">
-        <v>53</v>
-      </c>
-      <c r="AU4">
-        <v>53</v>
-      </c>
-      <c r="AV4">
-        <v>53</v>
-      </c>
-      <c r="AW4">
-        <v>53</v>
-      </c>
-      <c r="AX4">
-        <v>53</v>
-      </c>
-      <c r="AY4">
-        <v>53</v>
-      </c>
-      <c r="AZ4">
-        <v>54</v>
-      </c>
-      <c r="BA4">
-        <v>54</v>
-      </c>
-      <c r="BB4">
-        <v>55</v>
-      </c>
-      <c r="BC4">
-        <v>55</v>
-      </c>
-      <c r="BD4">
-        <v>55</v>
-      </c>
-      <c r="BE4">
-        <v>56</v>
-      </c>
-      <c r="BF4">
-        <v>56</v>
-      </c>
-      <c r="BG4">
-        <v>56</v>
-      </c>
-      <c r="BH4">
-        <v>57</v>
-      </c>
-      <c r="BI4">
-        <v>58</v>
-      </c>
-      <c r="BJ4">
-        <v>59</v>
-      </c>
-      <c r="BK4">
-        <v>60</v>
-      </c>
-      <c r="BL4">
-        <v>60</v>
-      </c>
-      <c r="BM4">
-        <v>60</v>
-      </c>
-      <c r="BN4">
-        <v>60</v>
-      </c>
-      <c r="BO4">
-        <v>60</v>
-      </c>
-      <c r="BP4">
-        <v>60</v>
-      </c>
-      <c r="BQ4">
-        <v>60</v>
-      </c>
-      <c r="BR4">
-        <v>60</v>
-      </c>
-      <c r="BS4">
-        <v>60</v>
-      </c>
-      <c r="BT4">
-        <v>60</v>
-      </c>
-      <c r="BU4">
-        <v>61</v>
-      </c>
-      <c r="BV4">
-        <v>61</v>
-      </c>
-      <c r="BW4">
-        <v>61</v>
-      </c>
-      <c r="BX4">
-        <v>61</v>
-      </c>
-      <c r="BY4">
-        <v>61</v>
-      </c>
-      <c r="BZ4">
-        <v>61</v>
-      </c>
-      <c r="CA4">
-        <v>61</v>
-      </c>
-      <c r="CB4">
-        <v>61</v>
-      </c>
-      <c r="CC4">
-        <v>61</v>
-      </c>
-      <c r="CD4">
-        <v>61</v>
-      </c>
-      <c r="CE4">
-        <v>61</v>
-      </c>
-      <c r="CF4">
-        <v>61</v>
-      </c>
-      <c r="CG4">
-        <v>61</v>
-      </c>
-      <c r="CH4">
-        <v>61</v>
-      </c>
-      <c r="CI4">
-        <v>62</v>
-      </c>
-      <c r="CJ4">
-        <v>62</v>
-      </c>
-      <c r="CK4">
-        <v>62</v>
-      </c>
-      <c r="CL4">
-        <v>62</v>
-      </c>
-      <c r="CM4">
-        <v>62</v>
-      </c>
-      <c r="CN4">
-        <v>62</v>
-      </c>
-      <c r="CO4">
-        <v>62</v>
-      </c>
-      <c r="CP4">
-        <v>62</v>
-      </c>
-      <c r="CQ4">
-        <v>62</v>
-      </c>
-      <c r="CR4">
-        <v>62</v>
-      </c>
-      <c r="CS4">
-        <v>62</v>
-      </c>
-      <c r="CT4">
-        <v>62</v>
-      </c>
-      <c r="CU4">
-        <v>62</v>
-      </c>
-      <c r="CV4">
-        <v>62</v>
-      </c>
-      <c r="CW4">
-        <v>62</v>
-      </c>
-      <c r="CX4">
-        <v>62</v>
-      </c>
-      <c r="CY4">
-        <v>63</v>
-      </c>
-      <c r="CZ4">
-        <v>63</v>
-      </c>
-      <c r="DA4">
-        <v>63</v>
-      </c>
-      <c r="DB4">
-        <v>63</v>
-      </c>
-      <c r="DC4">
-        <v>63</v>
-      </c>
-      <c r="DD4">
-        <v>63</v>
-      </c>
-      <c r="DE4">
-        <v>63</v>
-      </c>
-      <c r="DF4">
-        <v>63</v>
-      </c>
-      <c r="DG4">
-        <v>63</v>
-      </c>
-      <c r="DH4">
-        <v>63</v>
-      </c>
-      <c r="DI4">
-        <v>63</v>
-      </c>
-      <c r="DJ4">
-        <v>63</v>
-      </c>
-      <c r="DK4">
-        <v>71</v>
-      </c>
-      <c r="DL4">
-        <v>71</v>
-      </c>
-      <c r="DM4">
-        <v>71</v>
-      </c>
-      <c r="DN4">
-        <v>71</v>
-      </c>
-      <c r="DO4">
-        <v>71</v>
-      </c>
-      <c r="DP4">
-        <v>71</v>
-      </c>
-      <c r="DQ4">
-        <v>71</v>
-      </c>
-      <c r="DR4">
-        <v>71</v>
-      </c>
-      <c r="DS4">
-        <v>71</v>
-      </c>
-      <c r="DT4">
-        <v>71</v>
-      </c>
-      <c r="DU4">
-        <v>71</v>
-      </c>
-      <c r="DV4">
-        <v>71</v>
-      </c>
-      <c r="DW4">
-        <v>71</v>
-      </c>
-      <c r="DX4">
-        <v>71</v>
-      </c>
-      <c r="DY4">
-        <v>71</v>
-      </c>
-      <c r="DZ4">
-        <v>71</v>
-      </c>
-      <c r="EA4">
-        <v>71</v>
-      </c>
-      <c r="EB4">
-        <v>71</v>
-      </c>
-      <c r="EC4">
-        <v>71</v>
-      </c>
-      <c r="ED4">
-        <v>71</v>
-      </c>
-      <c r="EE4">
-        <v>71</v>
-      </c>
-      <c r="EF4">
-        <v>71</v>
-      </c>
-      <c r="EG4">
-        <v>71</v>
-      </c>
-      <c r="EH4">
-        <v>71</v>
-      </c>
-      <c r="EI4">
-        <v>71</v>
-      </c>
-      <c r="EJ4">
-        <v>71</v>
-      </c>
-      <c r="EK4">
-        <v>71</v>
-      </c>
-      <c r="EL4">
-        <v>71</v>
-      </c>
-      <c r="EM4">
-        <v>71</v>
-      </c>
-      <c r="EN4">
-        <v>71</v>
-      </c>
-      <c r="EO4">
-        <v>73</v>
-      </c>
-      <c r="EP4">
-        <v>73</v>
-      </c>
-      <c r="EQ4">
-        <v>73</v>
-      </c>
-      <c r="ER4">
-        <v>73</v>
-      </c>
-      <c r="ES4">
-        <v>73</v>
-      </c>
-      <c r="ET4">
-        <v>73</v>
-      </c>
-      <c r="EU4">
-        <v>73</v>
-      </c>
-      <c r="EV4">
-        <v>73</v>
-      </c>
-      <c r="EW4">
-        <v>73</v>
-      </c>
-      <c r="EX4">
-        <v>73</v>
-      </c>
-      <c r="EY4">
-        <v>73</v>
-      </c>
-      <c r="EZ4">
-        <v>73</v>
-      </c>
-      <c r="FA4">
-        <v>73</v>
-      </c>
-      <c r="FB4">
-        <v>73</v>
-      </c>
-      <c r="FC4">
-        <v>73</v>
-      </c>
-      <c r="FD4">
-        <v>73</v>
-      </c>
-      <c r="FE4">
-        <v>73</v>
-      </c>
-      <c r="FF4">
-        <v>73</v>
-      </c>
-      <c r="FG4">
-        <v>73</v>
-      </c>
-      <c r="FH4">
-        <v>73</v>
-      </c>
-      <c r="FI4">
-        <v>73</v>
-      </c>
-      <c r="FJ4">
-        <v>73</v>
-      </c>
-      <c r="FK4">
-        <v>73</v>
-      </c>
-      <c r="FL4">
-        <v>73</v>
-      </c>
-      <c r="FM4">
-        <v>73</v>
-      </c>
-      <c r="FN4">
-        <v>73</v>
-      </c>
-      <c r="FO4">
-        <v>73</v>
-      </c>
-      <c r="FP4">
-        <v>73</v>
-      </c>
-      <c r="FQ4">
-        <v>73</v>
-      </c>
-      <c r="FR4">
-        <v>73</v>
-      </c>
-      <c r="FS4">
-        <v>73</v>
-      </c>
-      <c r="FT4">
-        <v>73</v>
-      </c>
-      <c r="FU4">
-        <v>73</v>
-      </c>
-      <c r="FV4">
-        <v>73</v>
-      </c>
-      <c r="FW4">
-        <v>73</v>
-      </c>
-      <c r="FX4">
-        <v>73</v>
-      </c>
-      <c r="FY4">
-        <v>73</v>
-      </c>
-      <c r="FZ4">
-        <v>73</v>
-      </c>
-      <c r="GA4">
-        <v>73</v>
-      </c>
-      <c r="GB4">
-        <v>73</v>
-      </c>
-      <c r="GC4">
-        <v>73</v>
-      </c>
-      <c r="GD4">
-        <v>73</v>
-      </c>
-      <c r="GE4">
-        <v>73</v>
-      </c>
-      <c r="GF4">
-        <v>73</v>
-      </c>
-      <c r="GG4">
-        <v>73</v>
-      </c>
-      <c r="GH4">
-        <v>73</v>
-      </c>
-      <c r="GI4">
-        <v>73</v>
-      </c>
-      <c r="GJ4">
-        <v>74</v>
-      </c>
-      <c r="GK4">
-        <v>74</v>
-      </c>
-      <c r="GL4">
-        <v>74</v>
-      </c>
-      <c r="GM4">
-        <v>74</v>
-      </c>
-      <c r="GN4">
-        <v>74</v>
-      </c>
-      <c r="GO4">
-        <v>74</v>
-      </c>
-      <c r="GP4">
-        <v>74</v>
-      </c>
-      <c r="GQ4">
-        <v>74</v>
-      </c>
-      <c r="GR4">
-        <v>74</v>
-      </c>
-      <c r="GS4">
-        <v>74</v>
-      </c>
-      <c r="GT4">
-        <v>74</v>
-      </c>
-      <c r="GU4">
-        <v>74</v>
-      </c>
-      <c r="GV4">
-        <v>74</v>
-      </c>
-      <c r="GW4">
-        <v>74</v>
-      </c>
-      <c r="GX4">
-        <v>74</v>
-      </c>
-      <c r="GY4">
-        <v>74</v>
-      </c>
-      <c r="GZ4">
-        <v>74</v>
-      </c>
-      <c r="HA4">
-        <v>74</v>
-      </c>
-      <c r="HB4">
-        <v>74</v>
-      </c>
-      <c r="HC4">
-        <v>74</v>
-      </c>
-      <c r="HD4">
-        <v>74</v>
-      </c>
-      <c r="HE4">
-        <v>74</v>
-      </c>
-      <c r="HF4">
-        <v>74</v>
+    <row r="6" spans="1:244" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>80</v>
+      </c>
+      <c r="H6">
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>82</v>
+      </c>
+      <c r="J6">
+        <v>82</v>
+      </c>
+      <c r="K6">
+        <v>82</v>
+      </c>
+      <c r="L6">
+        <v>82</v>
+      </c>
+      <c r="M6">
+        <v>82</v>
+      </c>
+      <c r="N6">
+        <v>83</v>
+      </c>
+      <c r="O6">
+        <v>83</v>
+      </c>
+      <c r="P6">
+        <v>83</v>
+      </c>
+      <c r="Q6">
+        <v>83</v>
+      </c>
+      <c r="R6">
+        <v>83</v>
+      </c>
+      <c r="S6">
+        <v>83</v>
+      </c>
+      <c r="T6">
+        <v>83</v>
+      </c>
+      <c r="U6">
+        <v>83</v>
+      </c>
+      <c r="V6">
+        <v>83</v>
+      </c>
+      <c r="W6">
+        <v>83</v>
+      </c>
+      <c r="X6">
+        <v>84</v>
+      </c>
+      <c r="Y6">
+        <v>84</v>
+      </c>
+      <c r="Z6">
+        <v>84</v>
+      </c>
+      <c r="AA6">
+        <v>84</v>
+      </c>
+      <c r="AB6">
+        <v>84</v>
+      </c>
+      <c r="AC6">
+        <v>84</v>
+      </c>
+      <c r="AD6">
+        <v>84</v>
+      </c>
+      <c r="AE6">
+        <v>84</v>
+      </c>
+      <c r="AF6">
+        <v>84</v>
+      </c>
+      <c r="AG6">
+        <v>84</v>
+      </c>
+      <c r="AH6">
+        <v>84</v>
+      </c>
+      <c r="AI6">
+        <v>84</v>
+      </c>
+      <c r="AJ6">
+        <v>84</v>
+      </c>
+      <c r="AK6">
+        <v>84</v>
+      </c>
+      <c r="AL6">
+        <v>84</v>
+      </c>
+      <c r="AM6">
+        <v>84</v>
+      </c>
+      <c r="AN6">
+        <v>84</v>
+      </c>
+      <c r="AO6">
+        <v>84</v>
+      </c>
+      <c r="AP6">
+        <v>85</v>
+      </c>
+      <c r="AQ6">
+        <v>85</v>
+      </c>
+      <c r="AR6">
+        <v>85</v>
+      </c>
+      <c r="AS6">
+        <v>85</v>
+      </c>
+      <c r="AT6">
+        <v>85</v>
+      </c>
+      <c r="AU6">
+        <v>85</v>
+      </c>
+      <c r="AV6">
+        <v>86</v>
+      </c>
+      <c r="AW6">
+        <v>86</v>
+      </c>
+      <c r="AX6">
+        <v>86</v>
+      </c>
+      <c r="AY6">
+        <v>86</v>
+      </c>
+      <c r="AZ6">
+        <v>86</v>
+      </c>
+      <c r="BA6">
+        <v>86</v>
+      </c>
+      <c r="BB6">
+        <v>86</v>
+      </c>
+      <c r="BC6">
+        <v>86</v>
+      </c>
+      <c r="BD6">
+        <v>86</v>
+      </c>
+      <c r="BE6">
+        <v>86</v>
+      </c>
+      <c r="BF6">
+        <v>86</v>
+      </c>
+      <c r="BG6">
+        <v>86</v>
+      </c>
+      <c r="BH6">
+        <v>86</v>
+      </c>
+      <c r="BI6">
+        <v>86</v>
+      </c>
+      <c r="BJ6">
+        <v>86</v>
+      </c>
+      <c r="BK6">
+        <v>86</v>
+      </c>
+      <c r="BL6">
+        <v>86</v>
+      </c>
+      <c r="BM6">
+        <v>86</v>
+      </c>
+      <c r="BN6">
+        <v>86</v>
+      </c>
+      <c r="BO6">
+        <v>86</v>
+      </c>
+      <c r="BP6">
+        <v>86</v>
+      </c>
+      <c r="BQ6">
+        <v>86</v>
+      </c>
+      <c r="BR6">
+        <v>86</v>
+      </c>
+      <c r="BS6">
+        <v>86</v>
+      </c>
+      <c r="BT6">
+        <v>86</v>
+      </c>
+      <c r="BU6">
+        <v>86</v>
+      </c>
+      <c r="BV6">
+        <v>87</v>
+      </c>
+      <c r="BW6">
+        <v>87</v>
+      </c>
+      <c r="BX6">
+        <v>87</v>
+      </c>
+      <c r="BY6">
+        <v>88</v>
+      </c>
+      <c r="BZ6">
+        <v>88</v>
+      </c>
+      <c r="CA6">
+        <v>88</v>
+      </c>
+      <c r="CB6">
+        <v>88</v>
+      </c>
+      <c r="CC6">
+        <v>88</v>
+      </c>
+      <c r="CD6">
+        <v>88</v>
+      </c>
+      <c r="CE6">
+        <v>88</v>
+      </c>
+      <c r="CF6">
+        <v>88</v>
+      </c>
+      <c r="CG6">
+        <v>88</v>
+      </c>
+      <c r="CH6">
+        <v>88</v>
+      </c>
+      <c r="CI6">
+        <v>89</v>
+      </c>
+      <c r="CJ6">
+        <v>89</v>
+      </c>
+      <c r="CK6">
+        <v>89</v>
+      </c>
+      <c r="CL6">
+        <v>89</v>
+      </c>
+      <c r="CM6">
+        <v>89</v>
+      </c>
+      <c r="CN6">
+        <v>89</v>
+      </c>
+      <c r="CO6">
+        <v>90</v>
+      </c>
+      <c r="CP6">
+        <v>90</v>
+      </c>
+      <c r="CQ6">
+        <v>91</v>
+      </c>
+      <c r="CR6">
+        <v>91</v>
+      </c>
+      <c r="CS6">
+        <v>91</v>
+      </c>
+      <c r="CT6">
+        <v>91</v>
+      </c>
+      <c r="CU6">
+        <v>91</v>
+      </c>
+      <c r="CV6">
+        <v>91</v>
+      </c>
+      <c r="CW6">
+        <v>91</v>
+      </c>
+      <c r="CX6">
+        <v>91</v>
+      </c>
+      <c r="CY6">
+        <v>91</v>
+      </c>
+      <c r="CZ6">
+        <v>91</v>
+      </c>
+      <c r="DA6">
+        <v>91</v>
+      </c>
+      <c r="DB6">
+        <v>91</v>
+      </c>
+      <c r="DC6">
+        <v>91</v>
+      </c>
+      <c r="DD6">
+        <v>91</v>
+      </c>
+      <c r="DE6">
+        <v>91</v>
+      </c>
+      <c r="DF6">
+        <v>91</v>
+      </c>
+      <c r="DG6">
+        <v>91</v>
+      </c>
+      <c r="DH6">
+        <v>91</v>
+      </c>
+      <c r="DI6">
+        <v>91</v>
+      </c>
+      <c r="DJ6">
+        <v>91</v>
+      </c>
+      <c r="DK6">
+        <v>91</v>
+      </c>
+      <c r="DL6">
+        <v>91</v>
+      </c>
+      <c r="DM6">
+        <v>91</v>
+      </c>
+      <c r="DN6">
+        <v>91</v>
+      </c>
+      <c r="DO6">
+        <v>91</v>
+      </c>
+      <c r="DP6">
+        <v>91</v>
+      </c>
+      <c r="DQ6">
+        <v>91</v>
+      </c>
+      <c r="DR6">
+        <v>91</v>
+      </c>
+      <c r="DS6">
+        <v>91</v>
+      </c>
+      <c r="DT6">
+        <v>91</v>
+      </c>
+      <c r="DU6">
+        <v>91</v>
+      </c>
+      <c r="DV6">
+        <v>91</v>
+      </c>
+      <c r="DW6">
+        <v>91</v>
+      </c>
+      <c r="DX6">
+        <v>91</v>
+      </c>
+      <c r="DY6">
+        <v>91</v>
+      </c>
+      <c r="DZ6">
+        <v>91</v>
+      </c>
+      <c r="EA6">
+        <v>91</v>
+      </c>
+      <c r="EB6">
+        <v>91</v>
+      </c>
+      <c r="EC6">
+        <v>91</v>
+      </c>
+      <c r="ED6">
+        <v>91</v>
+      </c>
+      <c r="EE6">
+        <v>91</v>
+      </c>
+      <c r="EF6">
+        <v>91</v>
+      </c>
+      <c r="EG6">
+        <v>91</v>
+      </c>
+      <c r="EH6">
+        <v>91</v>
+      </c>
+      <c r="EI6">
+        <v>91</v>
+      </c>
+      <c r="EJ6">
+        <v>91</v>
+      </c>
+      <c r="EK6">
+        <v>92</v>
+      </c>
+      <c r="EL6">
+        <v>92</v>
+      </c>
+      <c r="EM6">
+        <v>92</v>
+      </c>
+      <c r="EN6">
+        <v>92</v>
+      </c>
+      <c r="EO6">
+        <v>92</v>
+      </c>
+      <c r="EP6">
+        <v>92</v>
+      </c>
+      <c r="EQ6">
+        <v>92</v>
+      </c>
+      <c r="ER6">
+        <v>92</v>
+      </c>
+      <c r="ES6">
+        <v>92</v>
+      </c>
+      <c r="ET6">
+        <v>92</v>
+      </c>
+      <c r="EU6">
+        <v>92</v>
+      </c>
+      <c r="EV6">
+        <v>92</v>
+      </c>
+      <c r="EW6">
+        <v>92</v>
+      </c>
+      <c r="EX6">
+        <v>92</v>
+      </c>
+      <c r="EY6">
+        <v>92</v>
+      </c>
+      <c r="EZ6">
+        <v>92</v>
+      </c>
+      <c r="FA6">
+        <v>92</v>
+      </c>
+      <c r="FB6">
+        <v>92</v>
+      </c>
+      <c r="FC6">
+        <v>92</v>
+      </c>
+      <c r="FD6">
+        <v>92</v>
+      </c>
+      <c r="FE6">
+        <v>92</v>
+      </c>
+      <c r="FF6">
+        <v>92</v>
+      </c>
+      <c r="FG6">
+        <v>92</v>
+      </c>
+      <c r="FH6">
+        <v>92</v>
+      </c>
+      <c r="FI6">
+        <v>92</v>
+      </c>
+      <c r="FJ6">
+        <v>92</v>
+      </c>
+      <c r="FK6">
+        <v>92</v>
+      </c>
+      <c r="FL6">
+        <v>92</v>
+      </c>
+      <c r="FM6">
+        <v>92</v>
+      </c>
+      <c r="FN6">
+        <v>92</v>
+      </c>
+      <c r="FO6">
+        <v>92</v>
+      </c>
+      <c r="FP6">
+        <v>92</v>
+      </c>
+      <c r="FQ6">
+        <v>92</v>
+      </c>
+      <c r="FR6">
+        <v>92</v>
+      </c>
+      <c r="FS6">
+        <v>92</v>
+      </c>
+      <c r="FT6">
+        <v>92</v>
+      </c>
+      <c r="FU6">
+        <v>92</v>
+      </c>
+      <c r="FV6">
+        <v>92</v>
+      </c>
+      <c r="FW6">
+        <v>92</v>
+      </c>
+      <c r="FX6">
+        <v>92</v>
+      </c>
+      <c r="FY6">
+        <v>92</v>
+      </c>
+      <c r="FZ6">
+        <v>92</v>
+      </c>
+      <c r="GA6">
+        <v>92</v>
+      </c>
+      <c r="GB6">
+        <v>92</v>
+      </c>
+      <c r="GC6">
+        <v>92</v>
+      </c>
+      <c r="GD6">
+        <v>92</v>
+      </c>
+      <c r="GE6">
+        <v>92</v>
+      </c>
+      <c r="GF6">
+        <v>92</v>
+      </c>
+      <c r="GG6">
+        <v>92</v>
+      </c>
+      <c r="GH6">
+        <v>92</v>
+      </c>
+      <c r="GI6">
+        <v>92</v>
+      </c>
+      <c r="GJ6">
+        <v>92</v>
+      </c>
+      <c r="GK6">
+        <v>92</v>
+      </c>
+      <c r="GL6">
+        <v>92</v>
+      </c>
+      <c r="GM6">
+        <v>92</v>
+      </c>
+      <c r="GN6">
+        <v>92</v>
+      </c>
+      <c r="GO6">
+        <v>92</v>
+      </c>
+      <c r="GP6">
+        <v>92</v>
+      </c>
+      <c r="GQ6">
+        <v>92</v>
+      </c>
+      <c r="GR6">
+        <v>92</v>
+      </c>
+      <c r="GS6">
+        <v>92</v>
+      </c>
+      <c r="GT6">
+        <v>92</v>
+      </c>
+      <c r="GU6">
+        <v>92</v>
+      </c>
+      <c r="GV6">
+        <v>92</v>
+      </c>
+      <c r="GW6">
+        <v>92</v>
+      </c>
+      <c r="GX6">
+        <v>92</v>
+      </c>
+      <c r="GY6">
+        <v>92</v>
+      </c>
+      <c r="GZ6">
+        <v>92</v>
+      </c>
+      <c r="HA6">
+        <v>92</v>
+      </c>
+      <c r="HB6">
+        <v>92</v>
+      </c>
+      <c r="HC6">
+        <v>92</v>
+      </c>
+      <c r="HD6">
+        <v>92</v>
+      </c>
+      <c r="HE6">
+        <v>92</v>
+      </c>
+      <c r="HF6">
+        <v>92</v>
+      </c>
+      <c r="HG6">
+        <v>92</v>
+      </c>
+      <c r="HH6">
+        <v>92</v>
+      </c>
+      <c r="HI6">
+        <v>92</v>
+      </c>
+      <c r="HJ6">
+        <v>92</v>
+      </c>
+      <c r="HK6">
+        <v>92</v>
+      </c>
+      <c r="HL6">
+        <v>92</v>
+      </c>
+      <c r="HM6">
+        <v>93</v>
+      </c>
+      <c r="HN6">
+        <v>93</v>
+      </c>
+      <c r="HO6">
+        <v>93</v>
+      </c>
+      <c r="HP6">
+        <v>94</v>
+      </c>
+      <c r="HQ6">
+        <v>94</v>
+      </c>
+      <c r="HR6">
+        <v>94</v>
+      </c>
+      <c r="HS6">
+        <v>94</v>
+      </c>
+      <c r="HT6">
+        <v>94</v>
+      </c>
+      <c r="HU6">
+        <v>97</v>
+      </c>
+      <c r="HV6">
+        <v>97</v>
+      </c>
+      <c r="HW6">
+        <v>103</v>
+      </c>
+      <c r="HX6">
+        <v>103</v>
+      </c>
+      <c r="HY6">
+        <v>103</v>
+      </c>
+      <c r="HZ6">
+        <v>103</v>
+      </c>
+      <c r="IA6">
+        <v>103</v>
+      </c>
+      <c r="IB6">
+        <v>104</v>
+      </c>
+      <c r="IC6">
+        <v>104</v>
+      </c>
+      <c r="ID6">
+        <v>104</v>
+      </c>
+      <c r="IE6">
+        <v>104</v>
+      </c>
+      <c r="IF6">
+        <v>104</v>
+      </c>
+      <c r="IG6">
+        <v>104</v>
+      </c>
+      <c r="IH6">
+        <v>104</v>
+      </c>
+      <c r="II6">
+        <v>104</v>
+      </c>
+      <c r="IJ6">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:HF4">
+  <conditionalFormatting sqref="A3:HF3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IJ6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EN6:EO6">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:IJ6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:IJ6">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -59321,10 +60163,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DD05AD-CC27-E34F-98BD-5059ADC78A25}">
   <dimension ref="A1:JB1"/>
   <sheetViews>
@@ -60151,7 +60994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7A2CCF-8D30-0748-AB84-A2BBBB90DF8C}">
   <dimension ref="B2:CW145"/>
   <sheetViews>
@@ -84971,42 +85814,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617C5839-7B5F-3D4A-ABC2-A19A6CAC3B4A}">
-  <dimension ref="A2:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
-        <v>7</v>
-      </c>
-      <c r="B2" s="28">
-        <v>7</v>
-      </c>
-      <c r="C2" s="28">
-        <v>7</v>
-      </c>
-      <c r="D2" s="30">
-        <v>8</v>
-      </c>
-      <c r="E2" s="30">
-        <v>8</v>
-      </c>
-      <c r="F2" s="30">
-        <v>8</v>
-      </c>
-      <c r="G2" s="57">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>